--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/references/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B0329A-5904-4B48-A7DE-D844406304BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3B76-C245-9540-AF8B-04CC53E0ABED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="403">
   <si>
     <t>accession-ID</t>
   </si>
@@ -1223,6 +1223,18 @@
   </si>
   <si>
     <t>Turkey parvovirus 260</t>
+  </si>
+  <si>
+    <t>3q</t>
+  </si>
+  <si>
+    <t>NC_004295</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>Human parvovirus V9</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,13 +1395,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFAFFD97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FB79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CE2B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7BE464"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96E486"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5FBC0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,7 +2366,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2345,6 +2411,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="895">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3245,6 +3320,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE5FBC0"/>
+      <color rgb="FF96E486"/>
+      <color rgb="FF7BE464"/>
+      <color rgb="FF8CE2B4"/>
+      <color rgb="FF61E45C"/>
+      <color rgb="FF73FB79"/>
+      <color rgb="FFAFFD97"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3578,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:G107"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3618,900 +3704,930 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="47" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="46" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="46" t="s">
         <v>92</v>
       </c>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="44" t="s">
         <v>15</v>
       </c>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="45" t="s">
         <v>21</v>
       </c>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>28</v>
       </c>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="48" t="s">
         <v>28</v>
       </c>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="48" t="s">
         <v>28</v>
       </c>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="48" t="s">
         <v>28</v>
       </c>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="48" t="s">
         <v>28</v>
       </c>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="E31" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="42" t="s">
+      <c r="E31" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="43" t="s">
+      <c r="E34" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="43" t="s">
+      <c r="E35" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="43" t="s">
+      <c r="E36" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="43"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="43" t="s">
+      <c r="E37" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="43" t="s">
+      <c r="E38" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="43"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="43" t="s">
+      <c r="E39" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="43"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="43" t="s">
+      <c r="E40" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="43"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="43" t="s">
+      <c r="E41" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="43"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="43" t="s">
+      <c r="E42" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="50" t="s">
         <v>43</v>
       </c>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="50" t="s">
         <v>43</v>
       </c>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="50" t="s">
         <v>43</v>
       </c>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
@@ -5040,16 +5156,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>27</v>
@@ -5057,38 +5173,40 @@
       <c r="F69" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>358</v>
-      </c>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>378</v>
+        <v>47</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>391</v>
+        <v>90</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D70" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>312</v>
+      </c>
       <c r="E70" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="12"/>
+      <c r="G70" s="12" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12" t="s">
@@ -5101,13 +5219,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12" t="s">
@@ -5120,13 +5238,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
@@ -5139,13 +5257,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="s">
@@ -5158,13 +5276,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="s">
@@ -5176,650 +5294,701 @@
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E77" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="G77" s="51"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E78" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="G78" s="51"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E79" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="G79" s="51"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="51"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="E79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E81" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="G81" s="51"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="E80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E82" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="G82" s="51"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="E81" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E83" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="G83" s="51"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="E82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E84" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="G84" s="51"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E85" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="G85" s="52"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E86" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="G86" s="52"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="E85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E87" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="G87" s="52"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="52"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C89" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D89" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="E86" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E89" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="G89" s="52"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D90" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="E87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E90" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="G90" s="52"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C91" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D91" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="E88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E91" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="G91" s="52"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C92" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D92" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E92" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="G92" s="52"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="E93" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="52"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B94" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C94" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D94" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E90" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E94" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="G94" s="52"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C95" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D95" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E91" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E95" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="G95" s="52"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C96" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D96" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E96" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="G96" s="52"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B97" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C97" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D97" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E93" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E97" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="G97" s="52"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B98" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C98" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D98" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="E94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E98" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="G98" s="42"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C99" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D99" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="E95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E99" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="G99" s="42"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C100" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D100" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E96" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E100" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="G100" s="42"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C101" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D101" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="E97" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E101" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="G101" s="42"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C102" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D102" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E98" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E102" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="G102" s="42"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C103" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D103" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E99" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E103" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="G103" s="42"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C104" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D104" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="E100" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E104" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="G104" s="42"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B105" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C105" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D105" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="E101" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E105" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="G105" s="42"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C106" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D106" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E102" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E106" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="G106" s="42"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C107" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D107" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E103" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E107" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="G107" s="42"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B108" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C108" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D108" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E104" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E108" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" t="s">
-        <v>27</v>
-      </c>
-      <c r="F106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C107" t="s">
-        <v>123</v>
-      </c>
-      <c r="D107" t="s">
-        <v>351</v>
-      </c>
-      <c r="E107" t="s">
-        <v>27</v>
-      </c>
-      <c r="F107" t="s">
-        <v>59</v>
-      </c>
+      <c r="G108" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G106">
-    <sortCondition ref="E2:E106"/>
-    <sortCondition ref="F2:F106"/>
-    <sortCondition ref="D2:D106"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G108">
+    <sortCondition ref="E2:E108"/>
+    <sortCondition ref="F2:F108"/>
+    <sortCondition ref="D2:D108"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3B76-C245-9540-AF8B-04CC53E0ABED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B990F74-BA15-674F-9CCF-2F865E59AA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="412">
   <si>
     <t>accession-ID</t>
   </si>
@@ -1235,6 +1235,33 @@
   </si>
   <si>
     <t>Human parvovirus V9</t>
+  </si>
+  <si>
+    <t>KJ495710</t>
+  </si>
+  <si>
+    <t>Tusavirus 1 strain Tu491</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>TusaPV-1</t>
+  </si>
+  <si>
+    <t>NC_023860</t>
+  </si>
+  <si>
+    <t>PPV-6</t>
+  </si>
+  <si>
+    <t>Porcine parvovirus 6</t>
+  </si>
+  <si>
+    <t>Dependo-A</t>
+  </si>
+  <si>
+    <t>Dependo-B</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1459,6 +1486,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2366,7 +2405,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2420,6 +2459,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="895">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3664,10 +3705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3678,6 +3719,7 @@
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3704,67 +3746,67 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -4610,16 +4652,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>135</v>
+        <v>408</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>27</v>
@@ -4630,40 +4672,38 @@
       <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>359</v>
-      </c>
+      <c r="A46" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>27</v>
@@ -4677,16 +4717,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>27</v>
@@ -4695,21 +4735,21 @@
         <v>44</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>303</v>
+        <v>71</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>27</v>
@@ -4718,18 +4758,18 @@
         <v>44</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>361</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>114</v>
@@ -4741,15 +4781,15 @@
         <v>44</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>285</v>
@@ -4764,18 +4804,18 @@
         <v>44</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>114</v>
@@ -4787,18 +4827,18 @@
         <v>44</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>114</v>
@@ -4810,18 +4850,18 @@
         <v>44</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>114</v>
@@ -4833,18 +4873,18 @@
         <v>44</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>114</v>
@@ -4856,18 +4896,18 @@
         <v>44</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>114</v>
@@ -4879,18 +4919,18 @@
         <v>44</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>114</v>
@@ -4902,18 +4942,18 @@
         <v>44</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>281</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>114</v>
@@ -4925,18 +4965,18 @@
         <v>44</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>114</v>
@@ -4948,18 +4988,18 @@
         <v>44</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>114</v>
@@ -4971,18 +5011,18 @@
         <v>44</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>114</v>
@@ -4994,18 +5034,18 @@
         <v>44</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>114</v>
@@ -5017,21 +5057,21 @@
         <v>44</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>27</v>
@@ -5040,18 +5080,18 @@
         <v>44</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>246</v>
@@ -5063,18 +5103,18 @@
         <v>44</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>246</v>
@@ -5086,18 +5126,18 @@
         <v>44</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>246</v>
@@ -5109,21 +5149,21 @@
         <v>44</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>27</v>
@@ -5131,17 +5171,19 @@
       <c r="F67" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="12"/>
+      <c r="G67" s="12" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>112</v>
@@ -5156,16 +5198,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>27</v>
@@ -5177,16 +5219,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>27</v>
@@ -5194,38 +5236,40 @@
       <c r="F70" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="12" t="s">
-        <v>358</v>
-      </c>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>378</v>
+        <v>47</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>391</v>
+        <v>90</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D71" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>312</v>
+      </c>
       <c r="E71" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12" t="s">
@@ -5238,13 +5282,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
@@ -5257,13 +5301,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="s">
@@ -5276,13 +5320,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="s">
@@ -5295,13 +5339,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="s">
@@ -5313,38 +5357,36 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B77" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G77" s="51"/>
+      <c r="A77" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="51" t="s">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="E78" s="51" t="s">
         <v>27</v>
@@ -5356,16 +5398,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="E79" s="51" t="s">
         <v>27</v>
@@ -5377,13 +5419,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="51" t="s">
-        <v>400</v>
+        <v>54</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>402</v>
+        <v>67</v>
       </c>
       <c r="D80" s="51" t="s">
         <v>114</v>
@@ -5398,16 +5440,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>226</v>
+        <v>400</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>225</v>
+        <v>402</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="E81" s="51" t="s">
         <v>27</v>
@@ -5419,16 +5461,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="51" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E82" s="51" t="s">
         <v>27</v>
@@ -5440,16 +5482,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D83" s="51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E83" s="51" t="s">
         <v>27</v>
@@ -5461,16 +5503,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="E84" s="51" t="s">
         <v>27</v>
@@ -5481,38 +5523,38 @@
       <c r="G84" s="51"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" s="52"/>
+      <c r="A85" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="51"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="52" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E86" s="52" t="s">
         <v>27</v>
@@ -5524,16 +5566,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="52" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="E87" s="52" t="s">
         <v>27</v>
@@ -5545,16 +5587,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="52" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="E88" s="52" t="s">
         <v>27</v>
@@ -5566,16 +5608,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="52" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="E89" s="52" t="s">
         <v>27</v>
@@ -5587,16 +5629,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="52" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="E90" s="52" t="s">
         <v>27</v>
@@ -5608,16 +5650,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>356</v>
+        <v>157</v>
       </c>
       <c r="E91" s="52" t="s">
         <v>27</v>
@@ -5629,16 +5671,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="52" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="E92" s="52" t="s">
         <v>27</v>
@@ -5650,16 +5692,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="52" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="E93" s="52" t="s">
         <v>27</v>
@@ -5671,16 +5713,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="52" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="E94" s="52" t="s">
         <v>27</v>
@@ -5692,16 +5734,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="52" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E95" s="52" t="s">
         <v>27</v>
@@ -5713,10 +5755,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="52" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="C96" s="52" t="s">
         <v>76</v>
@@ -5734,13 +5776,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="52" t="s">
-        <v>314</v>
+        <v>146</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="D97" s="52" t="s">
         <v>109</v>
@@ -5754,59 +5796,59 @@
       <c r="G97" s="52"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="E98" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" s="42"/>
+      <c r="A98" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="C98" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D98" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="E98" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="52"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="E99" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" s="42"/>
+      <c r="A99" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B99" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="52"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="42" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="E100" s="42" t="s">
         <v>27</v>
@@ -5818,16 +5860,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="42" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E101" s="42" t="s">
         <v>27</v>
@@ -5839,16 +5881,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="42" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E102" s="42" t="s">
         <v>27</v>
@@ -5860,16 +5902,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="42" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>114</v>
+        <v>354</v>
       </c>
       <c r="E103" s="42" t="s">
         <v>27</v>
@@ -5881,16 +5923,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="42" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>355</v>
+        <v>111</v>
       </c>
       <c r="E104" s="42" t="s">
         <v>27</v>
@@ -5902,16 +5944,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="E105" s="42" t="s">
         <v>27</v>
@@ -5923,16 +5965,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="42" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="E106" s="42" t="s">
         <v>27</v>
@@ -5944,16 +5986,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="42" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="E107" s="42" t="s">
         <v>27</v>
@@ -5965,16 +6007,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="E108" s="42" t="s">
         <v>27</v>
@@ -5984,11 +6026,53 @@
       </c>
       <c r="G108" s="42"/>
     </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="42"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="42"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G108">
-    <sortCondition ref="E2:E108"/>
-    <sortCondition ref="F2:F108"/>
-    <sortCondition ref="D2:D108"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G110">
+    <sortCondition ref="E2:E110"/>
+    <sortCondition ref="F2:F110"/>
+    <sortCondition ref="D2:D110"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B990F74-BA15-674F-9CCF-2F865E59AA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17B082-C23E-E241-B63E-7A37DEBAB7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17B082-C23E-E241-B63E-7A37DEBAB7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867F021-1215-114E-AAA8-1055FEDE2C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="415">
   <si>
     <t>accession-ID</t>
   </si>
@@ -1262,6 +1262,15 @@
   </si>
   <si>
     <t>Dependo-B</t>
+  </si>
+  <si>
+    <t>FJ688147</t>
+  </si>
+  <si>
+    <t>AAVpo1</t>
+  </si>
+  <si>
+    <t>Porcine AAV1</t>
   </si>
 </sst>
 </file>
@@ -1290,6 +1299,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1304,6 +1314,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3705,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5358,15 +5369,17 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="D77" s="12"/>
+        <v>414</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="E77" s="12" t="s">
         <v>27</v>
       </c>
@@ -5376,38 +5389,36 @@
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G78" s="51"/>
+      <c r="A78" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="E79" s="51" t="s">
         <v>27</v>
@@ -5419,16 +5430,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="51" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="E80" s="51" t="s">
         <v>27</v>
@@ -5440,13 +5451,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>400</v>
+        <v>54</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>402</v>
+        <v>67</v>
       </c>
       <c r="D81" s="51" t="s">
         <v>114</v>
@@ -5461,16 +5472,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="51" t="s">
-        <v>226</v>
+        <v>400</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>225</v>
+        <v>402</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="E82" s="51" t="s">
         <v>27</v>
@@ -5482,16 +5493,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D83" s="51" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E83" s="51" t="s">
         <v>27</v>
@@ -5503,16 +5514,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E84" s="51" t="s">
         <v>27</v>
@@ -5524,16 +5535,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D85" s="51" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="E85" s="51" t="s">
         <v>27</v>
@@ -5544,38 +5555,38 @@
       <c r="G85" s="51"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" s="52"/>
+      <c r="A86" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="51"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="52" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E87" s="52" t="s">
         <v>27</v>
@@ -5587,16 +5598,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="52" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="E88" s="52" t="s">
         <v>27</v>
@@ -5608,16 +5619,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="52" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="E89" s="52" t="s">
         <v>27</v>
@@ -5629,16 +5640,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="52" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="E90" s="52" t="s">
         <v>27</v>
@@ -5650,16 +5661,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="52" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="E91" s="52" t="s">
         <v>27</v>
@@ -5671,16 +5682,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>356</v>
+        <v>157</v>
       </c>
       <c r="E92" s="52" t="s">
         <v>27</v>
@@ -5692,16 +5703,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="52" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="E93" s="52" t="s">
         <v>27</v>
@@ -5713,16 +5724,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="52" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="E94" s="52" t="s">
         <v>27</v>
@@ -5734,16 +5745,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="52" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="E95" s="52" t="s">
         <v>27</v>
@@ -5755,16 +5766,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="52" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E96" s="52" t="s">
         <v>27</v>
@@ -5776,10 +5787,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="52" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>76</v>
@@ -5797,16 +5808,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="52" t="s">
-        <v>403</v>
+        <v>146</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>406</v>
+        <v>252</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="E98" s="52" t="s">
         <v>27</v>
@@ -5818,16 +5829,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="52" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>109</v>
+        <v>405</v>
       </c>
       <c r="E99" s="52" t="s">
         <v>27</v>
@@ -5838,38 +5849,38 @@
       <c r="G99" s="52"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B100" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D100" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" s="42"/>
+      <c r="A100" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="52"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="42" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E101" s="42" t="s">
         <v>27</v>
@@ -5881,16 +5892,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="42" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="E102" s="42" t="s">
         <v>27</v>
@@ -5902,16 +5913,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="42" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>354</v>
+        <v>110</v>
       </c>
       <c r="E103" s="42" t="s">
         <v>27</v>
@@ -5923,16 +5934,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="42" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="E104" s="42" t="s">
         <v>27</v>
@@ -5944,16 +5955,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E105" s="42" t="s">
         <v>27</v>
@@ -5965,16 +5976,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="42" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>355</v>
+        <v>114</v>
       </c>
       <c r="E106" s="42" t="s">
         <v>27</v>
@@ -5986,16 +5997,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>195</v>
+        <v>355</v>
       </c>
       <c r="E107" s="42" t="s">
         <v>27</v>
@@ -6007,16 +6018,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="42" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E108" s="42" t="s">
         <v>27</v>
@@ -6028,16 +6039,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="42" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="E109" s="42" t="s">
         <v>27</v>
@@ -6049,13 +6060,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="42" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D110" s="42" t="s">
         <v>109</v>
@@ -6068,11 +6079,32 @@
       </c>
       <c r="G110" s="42"/>
     </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="42"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G110">
-    <sortCondition ref="E2:E110"/>
-    <sortCondition ref="F2:F110"/>
-    <sortCondition ref="D2:D110"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G111">
+    <sortCondition ref="E2:E111"/>
+    <sortCondition ref="F2:F111"/>
+    <sortCondition ref="D2:D111"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867F021-1215-114E-AAA8-1055FEDE2C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEEBBCE-768E-A244-B245-F0014BCEE338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13340" yWindow="2160" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="416">
   <si>
     <t>accession-ID</t>
   </si>
@@ -1271,6 +1271,9 @@
   </si>
   <si>
     <t>Porcine AAV1</t>
+  </si>
+  <si>
+    <t>ErthryoPV-Giraffe-1</t>
   </si>
 </sst>
 </file>
@@ -3718,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5430,7 +5433,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="51" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="B80" s="51" t="s">
         <v>367</v>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEEBBCE-768E-A244-B245-F0014BCEE338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D8CB2-3CF4-0047-A226-FC8FC48FC206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13340" yWindow="2160" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3721,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/AAV-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCCEB9-6269-D448-8219-E305946ABFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F90BC1-DAA5-D942-9159-7FE7BF68B00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5740" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
+    <sheet name="to add" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
   <si>
     <t>virus_name</t>
   </si>
@@ -221,6 +222,24 @@
   </si>
   <si>
     <t>Dependo3</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>Densovirinae</t>
+  </si>
+  <si>
+    <t>Hamaparvovirinae</t>
+  </si>
+  <si>
+    <t>Ichthamaparvovirus</t>
+  </si>
+  <si>
+    <t>GpChPV</t>
   </si>
 </sst>
 </file>
@@ -363,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +565,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,9 +747,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,18 +1108,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:K17"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1090,571 +1132,619 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I14" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K14" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -1671,10 +1761,49 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L17">
+    <sortCondition ref="D2:D17"/>
+    <sortCondition ref="E2:E17"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A294D4-B9B4-0343-89CB-D84830908F70}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F90BC1-DAA5-D942-9159-7FE7BF68B00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C05D2-2222-8049-B20A-F742ACD7BE06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5740" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23560" yWindow="5740" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
   <si>
     <t>virus_name</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>GpChPV</t>
+  </si>
+  <si>
+    <t>KP120516</t>
+  </si>
+  <si>
+    <t>MN162688</t>
+  </si>
+  <si>
+    <t>Loriparvovirus</t>
+  </si>
+  <si>
+    <t>Artiparvovirus</t>
+  </si>
+  <si>
+    <t>SlPV</t>
+  </si>
+  <si>
+    <t>IcthPV</t>
+  </si>
+  <si>
+    <t>Slow loris parvovirus 1</t>
+  </si>
+  <si>
+    <t>Ichthyic parvovirus</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,6 +1143,10 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1175,25 +1203,25 @@
       <c r="E2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1213,25 +1241,25 @@
       <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1251,25 +1279,25 @@
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1289,25 +1317,25 @@
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1327,25 +1355,25 @@
       <c r="E6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1365,25 +1393,25 @@
       <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1403,25 +1431,25 @@
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1441,25 +1469,25 @@
       <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1479,25 +1507,25 @@
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1517,25 +1545,25 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1555,25 +1583,25 @@
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1593,25 +1621,25 @@
       <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1631,25 +1659,25 @@
       <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1669,25 +1697,25 @@
       <c r="E15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1707,25 +1735,25 @@
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1745,25 +1773,101 @@
       <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C05D2-2222-8049-B20A-F742ACD7BE06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973EB08-0487-234F-A705-17481D4FCC03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="5740" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6980" yWindow="4400" windowWidth="41080" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="101">
   <si>
     <t>virus_name</t>
   </si>
@@ -215,9 +215,6 @@
     <t>PPV7</t>
   </si>
   <si>
-    <t>Chappaparvovirus</t>
-  </si>
-  <si>
     <t>sequenceID</t>
   </si>
   <si>
@@ -264,6 +261,69 @@
   </si>
   <si>
     <t>Ichthyic parvovirus</t>
+  </si>
+  <si>
+    <t>NC_022564</t>
+  </si>
+  <si>
+    <t>NC_005041</t>
+  </si>
+  <si>
+    <t>NC_004286</t>
+  </si>
+  <si>
+    <t>MN049932</t>
+  </si>
+  <si>
+    <t>Syngnathus scovelli chapparvovirus</t>
+  </si>
+  <si>
+    <t>Chaphamaparvovirus</t>
+  </si>
+  <si>
+    <t>Ichthamaparvovirusarvovirus</t>
+  </si>
+  <si>
+    <t>SyngChPV</t>
+  </si>
+  <si>
+    <t>Acheta domesticus mini ambidensovirus</t>
+  </si>
+  <si>
+    <t>Blattella germanica densovirus 1</t>
+  </si>
+  <si>
+    <t>Galleria mellonella densovirus</t>
+  </si>
+  <si>
+    <t>AdMADV</t>
+  </si>
+  <si>
+    <t>BgDV</t>
+  </si>
+  <si>
+    <t>GmDV</t>
+  </si>
+  <si>
+    <t>Blattambidensovirus</t>
+  </si>
+  <si>
+    <t>Aquiambidensovirus</t>
+  </si>
+  <si>
+    <t>Asteroid aquambidensovirus 1</t>
+  </si>
+  <si>
+    <t>AaDV</t>
+  </si>
+  <si>
+    <t>NC_038532</t>
+  </si>
+  <si>
+    <t>Protoambidensovirus</t>
+  </si>
+  <si>
+    <t>Miniambidensovirus</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="A1:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1160,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1198,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>47</v>
@@ -1236,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>47</v>
@@ -1274,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
@@ -1302,579 +1362,769 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L17">
-    <sortCondition ref="D2:D17"/>
-    <sortCondition ref="E2:E17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
+    <sortCondition ref="D2:D24"/>
+    <sortCondition ref="E2:E24"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1892,19 +2142,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973EB08-0487-234F-A705-17481D4FCC03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F13AB-853F-3242-807B-393B89C3FFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="4400" windowWidth="41080" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="107">
   <si>
     <t>virus_name</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Junonia coenia densovirus</t>
   </si>
   <si>
-    <t>Ambidensovirus</t>
-  </si>
-  <si>
     <t>NC_000883</t>
   </si>
   <si>
@@ -324,6 +321,27 @@
   </si>
   <si>
     <t>Miniambidensovirus</t>
+  </si>
+  <si>
+    <t>Scindoambidensovirus</t>
+  </si>
+  <si>
+    <t>Planococcus citri densovirus</t>
+  </si>
+  <si>
+    <t>Bombyx mori densovirus 5</t>
+  </si>
+  <si>
+    <t>Periplaneta fuliginosa densovirus</t>
+  </si>
+  <si>
+    <t>NC_004289</t>
+  </si>
+  <si>
+    <t>PcDV</t>
+  </si>
+  <si>
+    <t>Pefuambidensovirus</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1213,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:L24"/>
+      <selection activeCell="C8" sqref="A1:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1220,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1249,19 +1267,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1287,19 +1305,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -1324,20 +1342,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
+      <c r="A4" t="s">
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -1362,20 +1380,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>98</v>
+      <c r="A5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1401,19 +1419,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1439,19 +1457,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -1477,19 +1495,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -1515,19 +1533,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -1553,19 +1571,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1591,19 +1609,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
@@ -1629,19 +1647,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -1667,19 +1685,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
@@ -1705,19 +1723,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -1743,19 +1761,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
@@ -1790,7 +1808,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>31</v>
@@ -1828,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
@@ -1866,7 +1884,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -1895,19 +1913,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -1942,25 +1960,25 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>23</v>
@@ -1971,19 +1989,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -2009,19 +2027,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -2056,7 +2074,7 @@
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
@@ -2085,19 +2103,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -2142,19 +2160,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F13AB-853F-3242-807B-393B89C3FFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA9EDE7-2A16-D344-BD63-34A5AE2A7220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="119">
   <si>
     <t>virus_name</t>
   </si>
@@ -342,6 +342,42 @@
   </si>
   <si>
     <t>Pefuambidensovirus</t>
+  </si>
+  <si>
+    <t>Eidolon helvum parvovirus 1</t>
+  </si>
+  <si>
+    <t>NC_007018</t>
+  </si>
+  <si>
+    <t>Human parvovirus 4</t>
+  </si>
+  <si>
+    <t>Carnivore protoparvovirus</t>
+  </si>
+  <si>
+    <t>PARV4</t>
+  </si>
+  <si>
+    <t>Bovine parvovirus 2</t>
+  </si>
+  <si>
+    <t>Bovine parvovirus</t>
+  </si>
+  <si>
+    <t>Chicken parvovirus</t>
+  </si>
+  <si>
+    <t>Porcine parvovirus 7</t>
+  </si>
+  <si>
+    <t>Fenneropenaeus chinensis hepatopancreatic densovirus</t>
+  </si>
+  <si>
+    <t>Infectious hypodermal and hematopoietic necrosis virus</t>
+  </si>
+  <si>
+    <t>Aedes albopictus densovirus 2</t>
   </si>
 </sst>
 </file>
@@ -1210,15 +1246,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:L24"/>
+      <selection activeCell="C21" sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -1583,7 +1619,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1615,7 +1651,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>68</v>
@@ -1653,7 +1689,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>68</v>
@@ -1691,7 +1727,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>68</v>
@@ -1767,7 +1803,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>68</v>
@@ -1843,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>66</v>
@@ -1881,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>66</v>
@@ -1919,7 +1955,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>66</v>
@@ -2071,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
@@ -2109,33 +2145,71 @@
         <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA9EDE7-2A16-D344-BD63-34A5AE2A7220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC0D6E-899D-2D42-BE72-FC21CC6529CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22440" yWindow="4380" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:L25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC0D6E-899D-2D42-BE72-FC21CC6529CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12B7710-DD69-9345-8E71-8B57D3F6BC67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22440" yWindow="4380" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="118">
   <si>
     <t>virus_name</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>Chaphamaparvovirus</t>
-  </si>
-  <si>
-    <t>Ichthamaparvovirusarvovirus</t>
   </si>
   <si>
     <t>SyngChPV</t>
@@ -384,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,6 +512,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -885,12 +890,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1249,7 +1257,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,13 +1317,13 @@
         <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>106</v>
+      <c r="E2" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1352,7 +1360,7 @@
       <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1379,19 +1387,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>94</v>
+      <c r="E4" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -1420,16 +1428,16 @@
         <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>93</v>
+      <c r="E5" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1461,12 +1469,12 @@
         <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1493,19 +1501,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>100</v>
+      <c r="E7" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -1534,16 +1542,16 @@
         <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>99</v>
+      <c r="E8" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -1572,16 +1580,16 @@
         <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>98</v>
+      <c r="E9" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -1618,8 +1626,8 @@
       <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>85</v>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1651,12 +1659,12 @@
         <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1689,12 +1697,12 @@
         <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1727,12 +1735,12 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1762,7 +1770,7 @@
         <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>83</v>
@@ -1770,8 +1778,8 @@
       <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>85</v>
+      <c r="E14" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -1803,12 +1811,12 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1846,7 +1854,7 @@
       <c r="D16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1879,12 +1887,12 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1917,12 +1925,12 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1955,12 +1963,12 @@
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1998,7 +2006,7 @@
       <c r="D20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2036,7 +2044,7 @@
       <c r="D21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -2074,7 +2082,7 @@
       <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -2107,12 +2115,12 @@
         <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -2145,12 +2153,12 @@
         <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2177,18 +2185,18 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="4" t="s">

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12B7710-DD69-9345-8E71-8B57D3F6BC67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42819DCF-E443-974D-85BA-EBD054A890EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22440" yWindow="4380" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:L25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42819DCF-E443-974D-85BA-EBD054A890EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8CFE86-8137-6F41-BFF8-4EF34BC56C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="4380" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22820" yWindow="740" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8CFE86-8137-6F41-BFF8-4EF34BC56C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01691F-1DC9-9446-8EA8-A84CD4FAEE0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22820" yWindow="740" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01691F-1DC9-9446-8EA8-A84CD4FAEE0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D62521-A139-764F-8A0E-ECD19B4355D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22820" yWindow="740" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="122">
   <si>
     <t>virus_name</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>Aedes albopictus densovirus 2</t>
+  </si>
+  <si>
+    <t>X59532</t>
+  </si>
+  <si>
+    <t>HHV6-Rep</t>
+  </si>
+  <si>
+    <t>Betherpesparvovirus</t>
+  </si>
+  <si>
+    <t>Proto1</t>
   </si>
 </sst>
 </file>
@@ -1254,14 +1266,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
@@ -2124,22 +2138,22 @@
         <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>13</v>
@@ -2218,6 +2232,44 @@
         <v>13</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D62521-A139-764F-8A0E-ECD19B4355D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D13A86-713A-114B-9667-00CD2A8EECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22820" yWindow="740" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="121">
   <si>
     <t>virus_name</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Human parvovirus B19</t>
   </si>
   <si>
-    <t>Erythroparvovirus</t>
-  </si>
-  <si>
     <t>NC_006259</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Loriparvovirus</t>
   </si>
   <si>
-    <t>Artiparvovirus</t>
-  </si>
-  <si>
     <t>SlPV</t>
   </si>
   <si>
@@ -387,6 +381,9 @@
   </si>
   <si>
     <t>Proto1</t>
+  </si>
+  <si>
+    <t>Erythyroparvovirus</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1266,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E20" sqref="A1:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1296,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1325,19 +1322,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1372,10 +1369,10 @@
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -1401,19 +1398,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -1439,19 +1436,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
@@ -1477,19 +1474,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
@@ -1515,19 +1512,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -1553,19 +1550,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
@@ -1591,19 +1588,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
@@ -1629,19 +1626,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -1667,19 +1664,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
@@ -1705,19 +1702,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
@@ -1743,19 +1740,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
@@ -1781,19 +1778,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
@@ -1819,19 +1816,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
@@ -1866,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -1901,10 +1898,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
@@ -1939,10 +1936,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -1971,19 +1968,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>13</v>
@@ -2018,25 +2015,25 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>23</v>
@@ -2056,10 +2053,10 @@
         <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
@@ -2085,19 +2082,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>13</v>
@@ -2129,31 +2126,31 @@
         <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>13</v>
@@ -2161,19 +2158,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>13</v>
@@ -2199,19 +2196,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>13</v>
@@ -2237,19 +2234,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>13</v>
@@ -2294,19 +2291,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D13A86-713A-114B-9667-00CD2A8EECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E75E7E-D551-AB45-BE40-6C16764BB3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22820" yWindow="740" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
     <t>Proto1</t>
   </si>
   <si>
-    <t>Erythyroparvovirus</t>
+    <t>Erythroparvovirus</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:L26"/>
+      <selection activeCell="C15" sqref="A1:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E75E7E-D551-AB45-BE40-6C16764BB3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A72BFE-AF37-F949-A772-78C04C1457B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="740" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="119">
   <si>
     <t>virus_name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Aveparvovirus</t>
   </si>
   <si>
-    <t>not-set</t>
-  </si>
-  <si>
     <t>Gallus_gallus</t>
   </si>
   <si>
@@ -149,12 +146,6 @@
     <t>Copiparvovirus</t>
   </si>
   <si>
-    <t>NC_016744</t>
-  </si>
-  <si>
-    <t>EhBtPV1</t>
-  </si>
-  <si>
     <t>Tetraparvovirus</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>Pefuambidensovirus</t>
   </si>
   <si>
-    <t>Eidolon helvum parvovirus 1</t>
-  </si>
-  <si>
     <t>NC_007018</t>
   </si>
   <si>
@@ -371,19 +359,25 @@
     <t>Aedes albopictus densovirus 2</t>
   </si>
   <si>
-    <t>X59532</t>
-  </si>
-  <si>
-    <t>HHV6-Rep</t>
-  </si>
-  <si>
-    <t>Betherpesparvovirus</t>
-  </si>
-  <si>
     <t>Proto1</t>
   </si>
   <si>
     <t>Erythroparvovirus</t>
+  </si>
+  <si>
+    <t>Artibeus jamaicensis parvovirus 1</t>
+  </si>
+  <si>
+    <t>Artiparvovirus</t>
+  </si>
+  <si>
+    <t>ArtiPV</t>
+  </si>
+  <si>
+    <t>NC_016752</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:L26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1293,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1322,572 +1316,572 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1898,382 +1892,344 @@
         <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
-    <sortCondition ref="D2:D24"/>
-    <sortCondition ref="E2:E24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L23">
+    <sortCondition ref="D2:D23"/>
+    <sortCondition ref="E2:E23"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2291,19 +2247,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A72BFE-AF37-F949-A772-78C04C1457B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505CA1F9-B48E-C146-9B47-484EA5079A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505CA1F9-B48E-C146-9B47-484EA5079A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC6EC8-CDB9-7646-B19F-24C064B5A416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC6EC8-CDB9-7646-B19F-24C064B5A416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D67879-6CD0-0247-8FC9-0884745694B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D67879-6CD0-0247-8FC9-0884745694B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22617505-4491-1D41-ACFB-7559C1ACD526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22617505-4491-1D41-ACFB-7559C1ACD526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1465B-1169-4445-BB9D-DA2BA7030286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="116">
   <si>
     <t>virus_name</t>
   </si>
@@ -227,22 +227,13 @@
     <t>KP120516</t>
   </si>
   <si>
-    <t>MN162688</t>
-  </si>
-  <si>
     <t>Loriparvovirus</t>
   </si>
   <si>
     <t>SlPV</t>
   </si>
   <si>
-    <t>IcthPV</t>
-  </si>
-  <si>
     <t>Slow loris parvovirus 1</t>
-  </si>
-  <si>
-    <t>Ichthyic parvovirus</t>
   </si>
   <si>
     <t>NC_022564</t>
@@ -1257,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1322,34 +1313,34 @@
         <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1369,101 +1360,101 @@
         <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1474,7 +1465,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>63</v>
@@ -1483,753 +1474,715 @@
         <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>118</v>
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L23">
-    <sortCondition ref="D2:D23"/>
-    <sortCondition ref="E2:E23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
+    <sortCondition ref="D2:D22"/>
+    <sortCondition ref="E2:E22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1465B-1169-4445-BB9D-DA2BA7030286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473CCA04-3102-AD4C-99B0-91498B16630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/parvo-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/family/Parvovirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473CCA04-3102-AD4C-99B0-91498B16630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545E8183-A40F-9F4E-B638-38AAE60C2FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="500" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parvo-ncbi-refseqs-side-data" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Dependoparvovirus</t>
   </si>
   <si>
-    <t>Dependo-A</t>
-  </si>
-  <si>
     <t>Homo sapiens</t>
   </si>
   <si>
@@ -369,13 +366,16 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>Dependoparvovirus-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1250,11 +1250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="L22" sqref="A1:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -1267,9 +1267,9 @@
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1305,539 +1305,539 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1845,37 +1845,37 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1883,75 +1883,75 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1962,221 +1962,221 @@
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2196,23 +2196,23 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
